--- a/para_grading/Sim_results/sim_results.xlsx
+++ b/para_grading/Sim_results/sim_results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>Time</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Not computed directly, so no computational time available</t>
+  </si>
+  <si>
+    <t>hybrid_0.8</t>
+  </si>
+  <si>
+    <t>hybrid_0.5</t>
   </si>
 </sst>
 </file>
@@ -116,13 +122,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,7 +433,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -747,20 +760,83 @@
     </row>
     <row r="10" spans="1:13">
       <c r="C10" s="1"/>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="C11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="D11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>0.83931</v>
+      </c>
+      <c r="F11">
+        <v>0.85738999999999999</v>
+      </c>
+      <c r="G11">
+        <v>0.78898000000000001</v>
+      </c>
+      <c r="H11">
+        <v>0.80966000000000005</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11">
+        <v>0.62192000000000003</v>
+      </c>
+      <c r="K11">
+        <v>0.74663999999999997</v>
+      </c>
+      <c r="L11">
+        <v>0.64005000000000001</v>
+      </c>
+      <c r="M11">
+        <v>0.71952000000000005</v>
+      </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="C12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>0.85019999999999996</v>
+      </c>
+      <c r="F12">
+        <v>0.85780000000000001</v>
+      </c>
+      <c r="G12">
+        <v>0.71541999999999994</v>
+      </c>
+      <c r="H12">
+        <v>0.74160000000000004</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12">
+        <v>0.72468999999999995</v>
+      </c>
+      <c r="K12">
+        <v>0.80474999999999997</v>
+      </c>
+      <c r="L12">
+        <v>0.66332000000000002</v>
+      </c>
+      <c r="M12">
+        <v>0.71274000000000004</v>
+      </c>
     </row>
     <row r="13" spans="1:13">
       <c r="C13" s="1"/>
@@ -768,27 +844,40 @@
     </row>
     <row r="14" spans="1:13">
       <c r="C14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="I14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:13">
       <c r="C15" s="1"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="C16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="3:9">
-      <c r="C17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="3:9">
-      <c r="C18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="3:9">
-      <c r="C19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
